--- a/InputFiles/TC36_Canine_StudyUBC-Breed_RespToTreatmt_Sex_NeutStatus.xlsx
+++ b/InputFiles/TC36_Canine_StudyUBC-Breed_RespToTreatmt_Sex_NeutStatus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\inputfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\updated code\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5798C3D4-1770-4DCD-BDFB-23D601AA993A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E8BCCF-4FF6-411B-92CE-AAFAEBA695E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -130,8 +130,7 @@
         coalesce(demo.sex, '') AS Sex ,
         coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
         coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`,
-        coalesce(co.cohort_description, '') AS `Cohort`</t>
+        coalesce(diag.best_response, '') AS `Response to Treatment`</t>
   </si>
 </sst>
 </file>
@@ -503,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="290" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
